--- a/output/ABSOLUTE_18422272000145.xlsx
+++ b/output/ABSOLUTE_18422272000145.xlsx
@@ -1351,10 +1351,10 @@
         <v>44165</v>
       </c>
       <c r="B88">
-        <v>1.395738</v>
+        <v>1.3982594</v>
       </c>
       <c r="C88">
-        <v>0.009250608028354534</v>
+        <v>0.0103127961654057</v>
       </c>
     </row>
   </sheetData>

--- a/output/ABSOLUTE_18422272000145.xlsx
+++ b/output/ABSOLUTE_18422272000145.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ABSOLUTE VERTEX CSHG FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,975 +383,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41547</v>
       </c>
       <c r="B2">
-        <v>0.005884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41578</v>
       </c>
       <c r="B3">
-        <v>0.02011180000000001</v>
-      </c>
-      <c r="C3">
         <v>0.01414457333052321</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41608</v>
       </c>
       <c r="B4">
-        <v>0.02996559999999993</v>
-      </c>
-      <c r="C4">
         <v>0.009659529475102513</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41639</v>
       </c>
       <c r="B5">
-        <v>0.04360619999999993</v>
-      </c>
-      <c r="C5">
         <v>0.01324374328618361</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41670</v>
       </c>
       <c r="B6">
-        <v>0.05598269999999994</v>
-      </c>
-      <c r="C6">
         <v>0.01185935844382691</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41698</v>
       </c>
       <c r="B7">
-        <v>0.06210910000000003</v>
-      </c>
-      <c r="C7">
         <v>0.005801610196833895</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41729</v>
       </c>
       <c r="B8">
-        <v>0.0674866999999999</v>
-      </c>
-      <c r="C8">
         <v>0.005063133344775927</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41759</v>
       </c>
       <c r="B9">
-        <v>0.07197070000000005</v>
-      </c>
-      <c r="C9">
         <v>0.004200520718431688</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41790</v>
       </c>
       <c r="B10">
-        <v>0.08117440000000009</v>
-      </c>
-      <c r="C10">
         <v>0.008585775711966726</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
       <c r="B11">
-        <v>0.09271629999999997</v>
-      </c>
-      <c r="C11">
         <v>0.01067533600499604</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41851</v>
       </c>
       <c r="B12">
-        <v>0.1123087</v>
-      </c>
-      <c r="C12">
         <v>0.01792999701752418</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41882</v>
       </c>
       <c r="B13">
-        <v>0.1216718999999999</v>
-      </c>
-      <c r="C13">
         <v>0.008417807035043356</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41912</v>
       </c>
       <c r="B14">
-        <v>0.1270538000000001</v>
-      </c>
-      <c r="C14">
         <v>0.004798105399627328</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41943</v>
       </c>
       <c r="B15">
-        <v>0.1324722</v>
-      </c>
-      <c r="C15">
         <v>0.004807578839625792</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41973</v>
       </c>
       <c r="B16">
-        <v>0.1482851999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01396325666978826</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42004</v>
       </c>
       <c r="B17">
-        <v>0.170018</v>
-      </c>
-      <c r="C17">
         <v>0.01892630855122057</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42035</v>
       </c>
       <c r="B18">
-        <v>0.1717652999999999</v>
-      </c>
-      <c r="C18">
         <v>0.001493395828098265</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42063</v>
       </c>
       <c r="B19">
-        <v>0.1903674</v>
-      </c>
-      <c r="C19">
         <v>0.01587527809536615</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42094</v>
       </c>
       <c r="B20">
-        <v>0.2020382000000001</v>
-      </c>
-      <c r="C20">
         <v>0.009804367962362059</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42124</v>
       </c>
       <c r="B21">
-        <v>0.2126059</v>
-      </c>
-      <c r="C21">
         <v>0.00879148433053123</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42155</v>
       </c>
       <c r="B22">
-        <v>0.2446743</v>
-      </c>
-      <c r="C22">
         <v>0.02644585516201103</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
       <c r="B23">
-        <v>0.2467256</v>
-      </c>
-      <c r="C23">
         <v>0.001648061665610046</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42216</v>
       </c>
       <c r="B24">
-        <v>0.2959855</v>
-      </c>
-      <c r="C24">
         <v>0.03951142095742632</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42247</v>
       </c>
       <c r="B25">
-        <v>0.3370362</v>
-      </c>
-      <c r="C25">
         <v>0.03167527723111108</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42277</v>
       </c>
       <c r="B26">
-        <v>0.3682532999999999</v>
-      </c>
-      <c r="C26">
         <v>0.02334798414582928</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42308</v>
       </c>
       <c r="B27">
-        <v>0.3653998000000001</v>
-      </c>
-      <c r="C27">
         <v>-0.002085505658930176</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42338</v>
       </c>
       <c r="B28">
-        <v>0.3834645999999999</v>
-      </c>
-      <c r="C28">
         <v>0.01323041060940522</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42369</v>
       </c>
       <c r="B29">
-        <v>0.3930769999999999</v>
-      </c>
-      <c r="C29">
         <v>0.006948063578930741</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42400</v>
       </c>
       <c r="B30">
-        <v>0.406398</v>
-      </c>
-      <c r="C30">
         <v>0.009562285501806489</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42429</v>
       </c>
       <c r="B31">
-        <v>0.4020463999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.003094145469490273</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42460</v>
       </c>
       <c r="B32">
-        <v>0.3788695</v>
-      </c>
-      <c r="C32">
         <v>-0.01653076531561293</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42490</v>
       </c>
       <c r="B33">
-        <v>0.4147778</v>
-      </c>
-      <c r="C33">
         <v>0.026041840797842</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42521</v>
       </c>
       <c r="B34">
-        <v>0.4198861</v>
-      </c>
-      <c r="C34">
         <v>0.003610672997554909</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42551</v>
       </c>
       <c r="B35">
-        <v>0.4402721999999999</v>
-      </c>
-      <c r="C35">
         <v>0.01435756008879863</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42582</v>
       </c>
       <c r="B36">
-        <v>0.4881253000000001</v>
-      </c>
-      <c r="C36">
         <v>0.03322503898915796</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42613</v>
       </c>
       <c r="B37">
-        <v>0.5016094</v>
-      </c>
-      <c r="C37">
         <v>0.009061132150632645</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42643</v>
       </c>
       <c r="B38">
-        <v>0.5134183000000001</v>
-      </c>
-      <c r="C38">
         <v>0.007864162278153009</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42674</v>
       </c>
       <c r="B39">
-        <v>0.5717127</v>
-      </c>
-      <c r="C39">
         <v>0.03851836600627845</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42704</v>
       </c>
       <c r="B40">
-        <v>0.5641129</v>
-      </c>
-      <c r="C40">
         <v>-0.004835362086213268</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42735</v>
       </c>
       <c r="B41">
-        <v>0.5805216</v>
-      </c>
-      <c r="C41">
         <v>0.01049073887185514</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42766</v>
       </c>
       <c r="B42">
-        <v>0.5918036</v>
-      </c>
-      <c r="C42">
         <v>0.007138149836104724</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42794</v>
       </c>
       <c r="B43">
-        <v>0.6355280000000001</v>
-      </c>
-      <c r="C43">
         <v>0.02746846407433678</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42825</v>
       </c>
       <c r="B44">
-        <v>0.6506721</v>
-      </c>
-      <c r="C44">
         <v>0.009259456273448041</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42855</v>
       </c>
       <c r="B45">
-        <v>0.6576811</v>
-      </c>
-      <c r="C45">
         <v>0.004246149189775617</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42886</v>
       </c>
       <c r="B46">
-        <v>0.6352502</v>
-      </c>
-      <c r="C46">
         <v>-0.01353149287881728</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42916</v>
       </c>
       <c r="B47">
-        <v>0.6636808000000001</v>
-      </c>
-      <c r="C47">
         <v>0.01738608562775301</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42947</v>
       </c>
       <c r="B48">
-        <v>0.7110696999999999</v>
-      </c>
-      <c r="C48">
         <v>0.02848437031911399</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42978</v>
       </c>
       <c r="B49">
-        <v>0.7588737999999999</v>
-      </c>
-      <c r="C49">
         <v>0.02793813717816396</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43008</v>
       </c>
       <c r="B50">
-        <v>0.830649</v>
-      </c>
-      <c r="C50">
         <v>0.04080747578365207</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43039</v>
       </c>
       <c r="B51">
-        <v>0.8404859</v>
-      </c>
-      <c r="C51">
         <v>0.00537344952527774</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43069</v>
       </c>
       <c r="B52">
-        <v>0.8465057</v>
-      </c>
-      <c r="C52">
         <v>0.00327076670351012</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43100</v>
       </c>
       <c r="B53">
-        <v>0.8881102999999999</v>
-      </c>
-      <c r="C53">
         <v>0.02253153077187897</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43131</v>
       </c>
       <c r="B54">
-        <v>0.9319587</v>
-      </c>
-      <c r="C54">
         <v>0.02322343138533811</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43159</v>
       </c>
       <c r="B55">
-        <v>0.9470992</v>
-      </c>
-      <c r="C55">
         <v>0.007836865249759128</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43190</v>
       </c>
       <c r="B56">
-        <v>1.0180089</v>
-      </c>
-      <c r="C56">
         <v>0.03641812394561095</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43220</v>
       </c>
       <c r="B57">
-        <v>0.9894346000000001</v>
-      </c>
-      <c r="C57">
         <v>-0.014159650138312</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43251</v>
       </c>
       <c r="B58">
-        <v>1.0197897</v>
-      </c>
-      <c r="C58">
         <v>0.01525815425146426</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43281</v>
       </c>
       <c r="B59">
-        <v>1.0461374</v>
-      </c>
-      <c r="C59">
         <v>0.01304477391878978</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43312</v>
       </c>
       <c r="B60">
-        <v>1.0779129</v>
-      </c>
-      <c r="C60">
         <v>0.01552950451910018</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43343</v>
       </c>
       <c r="B61">
-        <v>1.0563456</v>
-      </c>
-      <c r="C61">
         <v>-0.0103793089691101</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43373</v>
       </c>
       <c r="B62">
-        <v>1.0791869</v>
-      </c>
-      <c r="C62">
         <v>0.01110771457871662</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43404</v>
       </c>
       <c r="B63">
-        <v>1.1129083</v>
-      </c>
-      <c r="C63">
         <v>0.01621855158860419</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43434</v>
       </c>
       <c r="B64">
-        <v>1.1176435</v>
-      </c>
-      <c r="C64">
         <v>0.002241081640883325</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43465</v>
       </c>
       <c r="B65">
-        <v>1.1324257</v>
-      </c>
-      <c r="C65">
         <v>0.006980495064443204</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43496</v>
       </c>
       <c r="B66">
-        <v>1.2278347</v>
-      </c>
-      <c r="C66">
         <v>0.04474200437558018</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43524</v>
       </c>
       <c r="B67">
-        <v>1.1971497</v>
-      </c>
-      <c r="C67">
         <v>-0.01377346353389663</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43555</v>
       </c>
       <c r="B68">
-        <v>1.1707021</v>
-      </c>
-      <c r="C68">
         <v>-0.01203723169158666</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43585</v>
       </c>
       <c r="B69">
-        <v>1.1971261</v>
-      </c>
-      <c r="C69">
         <v>0.01217301996437015</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43616</v>
       </c>
       <c r="B70">
-        <v>1.2443689</v>
-      </c>
-      <c r="C70">
         <v>0.02150208856924496</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43646</v>
       </c>
       <c r="B71">
-        <v>1.2616111</v>
-      </c>
-      <c r="C71">
         <v>0.007682426895150751</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43677</v>
       </c>
       <c r="B72">
-        <v>1.244672</v>
-      </c>
-      <c r="C72">
         <v>-0.007489837664839905</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43708</v>
       </c>
       <c r="B73">
-        <v>1.2526103</v>
-      </c>
-      <c r="C73">
         <v>0.003536507783765463</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43738</v>
       </c>
       <c r="B74">
-        <v>1.2680942</v>
-      </c>
-      <c r="C74">
         <v>0.006873758856558609</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43769</v>
       </c>
       <c r="B75">
-        <v>1.3140362</v>
-      </c>
-      <c r="C75">
         <v>0.02025577244542998</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43799</v>
       </c>
       <c r="B76">
-        <v>1.3216301</v>
-      </c>
-      <c r="C76">
         <v>0.003281668627310275</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
       <c r="B77">
-        <v>1.3545382</v>
-      </c>
-      <c r="C77">
         <v>0.01417456639625736</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43861</v>
       </c>
       <c r="B78">
-        <v>1.3776388</v>
-      </c>
-      <c r="C78">
         <v>0.009811095865847497</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43890</v>
       </c>
       <c r="B79">
-        <v>1.3458759</v>
-      </c>
-      <c r="C79">
         <v>-0.01335900978735727</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43921</v>
       </c>
       <c r="B80">
-        <v>1.3112562</v>
-      </c>
-      <c r="C80">
         <v>-0.0147576860310471</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43951</v>
       </c>
       <c r="B81">
-        <v>1.3510383</v>
-      </c>
-      <c r="C81">
         <v>0.01721232808374951</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43982</v>
       </c>
       <c r="B82">
-        <v>1.3540536</v>
-      </c>
-      <c r="C82">
         <v>0.001282539718727715</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44012</v>
       </c>
       <c r="B83">
-        <v>1.3605006</v>
-      </c>
-      <c r="C83">
         <v>0.002738680206771926</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44043</v>
       </c>
       <c r="B84">
-        <v>1.4062395</v>
-      </c>
-      <c r="C84">
         <v>0.01937677965428186</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44074</v>
       </c>
       <c r="B85">
-        <v>1.4054088</v>
-      </c>
-      <c r="C85">
         <v>-0.0003452274804730537</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44104</v>
       </c>
       <c r="B86">
-        <v>1.3674052</v>
-      </c>
-      <c r="C86">
         <v>-0.01579922714176485</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44135</v>
       </c>
       <c r="B87">
-        <v>1.3737791</v>
-      </c>
-      <c r="C87">
         <v>0.002692357016027547</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44165</v>
       </c>
       <c r="B88">
-        <v>1.3982594</v>
-      </c>
-      <c r="C88">
-        <v>0.0103127961654057</v>
+        <v>0.006653988991646376</v>
       </c>
     </row>
   </sheetData>
